--- a/autoast/auto_ast_v3_Breville_folium_maps/gr_2025_26_1_job.xlsx
+++ b/autoast/auto_ast_v3_Breville_folium_maps/gr_2025_26_1_job.xlsx
@@ -1,133 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="ast_config"/>
-    <sheet r:id="rId2" sheetId="2" name="Domains"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ast_config" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Domains" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
-  <si>
-    <t>Northeast</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Cariboo</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Kootenay_Boundary</t>
-  </si>
-  <si>
-    <t>Skeena</t>
-  </si>
-  <si>
-    <t>South_Coast</t>
-  </si>
-  <si>
-    <t>Thompson_Okanagan</t>
-  </si>
-  <si>
-    <t>West_Coast</t>
-  </si>
-  <si>
-    <t>Omineca</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>feature_layer</t>
-  </si>
-  <si>
-    <t>crown_file_number</t>
-  </si>
-  <si>
-    <t>disposition_number</t>
-  </si>
-  <si>
-    <t>parcel_number</t>
-  </si>
-  <si>
-    <t>output_directory</t>
-  </si>
-  <si>
-    <t>output_directory_same_as_input</t>
-  </si>
-  <si>
-    <t>dont_overwrite_outputs</t>
-  </si>
-  <si>
-    <t>skip_conflicts_and_constraints</t>
-  </si>
-  <si>
-    <t>suppress_map_creation</t>
-  </si>
-  <si>
-    <t>add_maps_to_current</t>
-  </si>
-  <si>
-    <t>run_as_fcbc</t>
-  </si>
-  <si>
-    <t>ast_condition</t>
-  </si>
-  <si>
-    <t>file_number</t>
-  </si>
-  <si>
-    <t>\\spatialfiles.bcgov\srm\gss\projects\gr_2025_26_general_request_batch_20_statuses\source_data\Powell River Parcels - South Coast\632\632.shp</t>
-  </si>
-  <si>
-    <t>\\spatialfiles.bcgov\work\srm\nel\Local\Geomatics\Workarea\csostad\WildLifePermittingTest\AST_OUTPUTS\1</t>
-  </si>
-  <si>
-    <t>Queued</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -214,103 +128,168 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:N2" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N2" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A1:N2"/>
   <tableColumns count="14">
-    <tableColumn name="region" id="1" totalsRowLabel="Total"/>
-    <tableColumn name="feature_layer" id="2"/>
-    <tableColumn name="crown_file_number" id="3"/>
-    <tableColumn name="disposition_number" id="4"/>
-    <tableColumn name="parcel_number" id="5"/>
-    <tableColumn name="output_directory" id="6"/>
-    <tableColumn name="output_directory_same_as_input" id="7"/>
-    <tableColumn name="dont_overwrite_outputs" id="8"/>
-    <tableColumn name="skip_conflicts_and_constraints" id="9"/>
-    <tableColumn name="suppress_map_creation" id="10"/>
-    <tableColumn name="add_maps_to_current" id="11"/>
-    <tableColumn name="run_as_fcbc" id="12"/>
-    <tableColumn name="ast_condition" id="13"/>
-    <tableColumn name="file_number" id="14" totalsRowFunction="custom">
+    <tableColumn id="1" name="region" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="feature_layer"/>
+    <tableColumn id="3" name="crown_file_number"/>
+    <tableColumn id="4" name="disposition_number"/>
+    <tableColumn id="5" name="parcel_number"/>
+    <tableColumn id="6" name="output_directory"/>
+    <tableColumn id="7" name="output_directory_same_as_input"/>
+    <tableColumn id="8" name="dont_overwrite_outputs"/>
+    <tableColumn id="9" name="skip_conflicts_and_constraints"/>
+    <tableColumn id="10" name="suppress_map_creation"/>
+    <tableColumn id="11" name="add_maps_to_current"/>
+    <tableColumn id="12" name="run_as_fcbc"/>
+    <tableColumn id="13" name="ast_condition"/>
+    <tableColumn id="14" name="file_number" totalsRowFunction="custom">
       <totalsRowFormula>Sum</totalsRowFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -598,198 +577,272 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="5" width="23.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="145.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="39.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="171.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="19" width="34.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="19" width="26.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="19" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="19" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="19" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="19" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="18" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="23.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="145.7192857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="17.71928571428571" bestFit="1" customWidth="1" style="19" min="3" max="3"/>
+    <col width="23.14785714285714" bestFit="1" customWidth="1" style="19" min="4" max="4"/>
+    <col width="39.43357142857143" bestFit="1" customWidth="1" style="19" min="5" max="5"/>
+    <col width="171.7192857142857" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="34.005" bestFit="1" customWidth="1" style="20" min="7" max="7"/>
+    <col width="26.86214285714286" bestFit="1" customWidth="1" style="20" min="8" max="8"/>
+    <col width="29.005" bestFit="1" customWidth="1" style="20" min="9" max="9"/>
+    <col width="21.005" bestFit="1" customWidth="1" style="20" min="10" max="10"/>
+    <col width="21.29071428571428" bestFit="1" customWidth="1" style="20" min="11" max="11"/>
+    <col width="13.71928571428571" bestFit="1" customWidth="1" style="20" min="12" max="12"/>
+    <col width="14.71928571428571" bestFit="1" customWidth="1" style="5" min="13" max="13"/>
+    <col width="11.57642857142857" bestFit="1" customWidth="1" style="5" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="12"/>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>feature_layer</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>crown_file_number</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>disposition_number</t>
+        </is>
+      </c>
+      <c r="E1" s="10" t="inlineStr">
+        <is>
+          <t>parcel_number</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>output_directory</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>output_directory_same_as_input</t>
+        </is>
+      </c>
+      <c r="H1" s="11" t="inlineStr">
+        <is>
+          <t>dont_overwrite_outputs</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
+        <is>
+          <t>skip_conflicts_and_constraints</t>
+        </is>
+      </c>
+      <c r="J1" s="11" t="inlineStr">
+        <is>
+          <t>suppress_map_creation</t>
+        </is>
+      </c>
+      <c r="K1" s="11" t="inlineStr">
+        <is>
+          <t>add_maps_to_current</t>
+        </is>
+      </c>
+      <c r="L1" s="11" t="inlineStr">
+        <is>
+          <t>run_as_fcbc</t>
+        </is>
+      </c>
+      <c r="M1" s="8" t="inlineStr">
+        <is>
+          <t>ast_condition</t>
+        </is>
+      </c>
+      <c r="N1" s="10" t="inlineStr">
+        <is>
+          <t>file_number</t>
+        </is>
+      </c>
+      <c r="O1" s="12" t="n"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="13" t="inlineStr">
+        <is>
+          <t>South_Coast</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>\\spatialfiles.bcgov\srm\gss\projects\gr_2025_26_general_request_batch_20_statuses\source_data\Powell River Parcels - South Coast\632\632.shp</t>
+        </is>
+      </c>
+      <c r="C2" s="15" t="n"/>
+      <c r="D2" s="15" t="n"/>
+      <c r="E2" s="15" t="n"/>
+      <c r="F2" s="14" t="inlineStr">
+        <is>
+          <t>\\spatialfiles.bcgov\work\srm\nel\Local\Geomatics\Workarea\csostad\WildLifePermittingTest\AST_OUTPUTS\1</t>
+        </is>
+      </c>
+      <c r="G2" s="16" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H2" s="16" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I2" s="16" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J2" s="16" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="K2" s="16" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="L2" s="16" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M2" s="17" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+      <c r="N2" s="18" t="n"/>
+      <c r="O2" s="12" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="5" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="27.14785714285714" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Northeast</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="n"/>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Cariboo</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Kootenay_Boundary</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="6" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Skeena</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>South_Coast</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="6" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Thompson_Okanagan</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>West_Coast</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>Omineca</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/autoast/auto_ast_v3_Breville_folium_maps/gr_2025_26_1_job.xlsx
+++ b/autoast/auto_ast_v3_Breville_folium_maps/gr_2025_26_1_job.xlsx
@@ -1,47 +1,133 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ast_config" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Domains" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="ast_config"/>
+    <sheet r:id="rId2" sheetId="2" name="Domains"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Cariboo</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Kootenay_Boundary</t>
+  </si>
+  <si>
+    <t>Skeena</t>
+  </si>
+  <si>
+    <t>South_Coast</t>
+  </si>
+  <si>
+    <t>Thompson_Okanagan</t>
+  </si>
+  <si>
+    <t>West_Coast</t>
+  </si>
+  <si>
+    <t>Omineca</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>feature_layer</t>
+  </si>
+  <si>
+    <t>crown_file_number</t>
+  </si>
+  <si>
+    <t>disposition_number</t>
+  </si>
+  <si>
+    <t>parcel_number</t>
+  </si>
+  <si>
+    <t>output_directory</t>
+  </si>
+  <si>
+    <t>output_directory_same_as_input</t>
+  </si>
+  <si>
+    <t>dont_overwrite_outputs</t>
+  </si>
+  <si>
+    <t>skip_conflicts_and_constraints</t>
+  </si>
+  <si>
+    <t>suppress_map_creation</t>
+  </si>
+  <si>
+    <t>add_maps_to_current</t>
+  </si>
+  <si>
+    <t>run_as_fcbc</t>
+  </si>
+  <si>
+    <t>ast_condition</t>
+  </si>
+  <si>
+    <t>file_number</t>
+  </si>
+  <si>
+    <t>\\spatialfiles.bcgov\srm\gss\projects\gr_2025_26_general_request_batch_20_statuses\source_data\Powell River Parcels - South Coast\632\632.shp</t>
+  </si>
+  <si>
+    <t>\\spatialfiles.bcgov\work\srm\nel\Local\Geomatics\Workarea\csostad\WildLifePermittingTest\AST_OUTPUTS\1</t>
+  </si>
+  <si>
+    <t>COMPLETE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -128,168 +214,103 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="20">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N2" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:N2" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
   <autoFilter ref="A1:N2"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="region" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="feature_layer"/>
-    <tableColumn id="3" name="crown_file_number"/>
-    <tableColumn id="4" name="disposition_number"/>
-    <tableColumn id="5" name="parcel_number"/>
-    <tableColumn id="6" name="output_directory"/>
-    <tableColumn id="7" name="output_directory_same_as_input"/>
-    <tableColumn id="8" name="dont_overwrite_outputs"/>
-    <tableColumn id="9" name="skip_conflicts_and_constraints"/>
-    <tableColumn id="10" name="suppress_map_creation"/>
-    <tableColumn id="11" name="add_maps_to_current"/>
-    <tableColumn id="12" name="run_as_fcbc"/>
-    <tableColumn id="13" name="ast_condition"/>
-    <tableColumn id="14" name="file_number" totalsRowFunction="custom">
+    <tableColumn name="region" id="1" totalsRowLabel="Total"/>
+    <tableColumn name="feature_layer" id="2"/>
+    <tableColumn name="crown_file_number" id="3"/>
+    <tableColumn name="disposition_number" id="4"/>
+    <tableColumn name="parcel_number" id="5"/>
+    <tableColumn name="output_directory" id="6"/>
+    <tableColumn name="output_directory_same_as_input" id="7"/>
+    <tableColumn name="dont_overwrite_outputs" id="8"/>
+    <tableColumn name="skip_conflicts_and_constraints" id="9"/>
+    <tableColumn name="suppress_map_creation" id="10"/>
+    <tableColumn name="add_maps_to_current" id="11"/>
+    <tableColumn name="run_as_fcbc" id="12"/>
+    <tableColumn name="ast_condition" id="13"/>
+    <tableColumn name="file_number" id="14" totalsRowFunction="custom">
       <totalsRowFormula>Sum</totalsRowFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
@@ -577,272 +598,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="23.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="145.7192857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="17.71928571428571" bestFit="1" customWidth="1" style="19" min="3" max="3"/>
-    <col width="23.14785714285714" bestFit="1" customWidth="1" style="19" min="4" max="4"/>
-    <col width="39.43357142857143" bestFit="1" customWidth="1" style="19" min="5" max="5"/>
-    <col width="171.7192857142857" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
-    <col width="34.005" bestFit="1" customWidth="1" style="20" min="7" max="7"/>
-    <col width="26.86214285714286" bestFit="1" customWidth="1" style="20" min="8" max="8"/>
-    <col width="29.005" bestFit="1" customWidth="1" style="20" min="9" max="9"/>
-    <col width="21.005" bestFit="1" customWidth="1" style="20" min="10" max="10"/>
-    <col width="21.29071428571428" bestFit="1" customWidth="1" style="20" min="11" max="11"/>
-    <col width="13.71928571428571" bestFit="1" customWidth="1" style="20" min="12" max="12"/>
-    <col width="14.71928571428571" bestFit="1" customWidth="1" style="5" min="13" max="13"/>
-    <col width="11.57642857142857" bestFit="1" customWidth="1" style="5" min="14" max="14"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="19" min="15" max="15"/>
+    <col min="1" max="1" style="5" width="23.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="145.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="39.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="171.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="19" width="34.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="19" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="19" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="19" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="19" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="19" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>region</t>
-        </is>
-      </c>
-      <c r="B1" s="8" t="inlineStr">
-        <is>
-          <t>feature_layer</t>
-        </is>
-      </c>
-      <c r="C1" s="9" t="inlineStr">
-        <is>
-          <t>crown_file_number</t>
-        </is>
-      </c>
-      <c r="D1" s="9" t="inlineStr">
-        <is>
-          <t>disposition_number</t>
-        </is>
-      </c>
-      <c r="E1" s="10" t="inlineStr">
-        <is>
-          <t>parcel_number</t>
-        </is>
-      </c>
-      <c r="F1" s="8" t="inlineStr">
-        <is>
-          <t>output_directory</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>output_directory_same_as_input</t>
-        </is>
-      </c>
-      <c r="H1" s="11" t="inlineStr">
-        <is>
-          <t>dont_overwrite_outputs</t>
-        </is>
-      </c>
-      <c r="I1" s="11" t="inlineStr">
-        <is>
-          <t>skip_conflicts_and_constraints</t>
-        </is>
-      </c>
-      <c r="J1" s="11" t="inlineStr">
-        <is>
-          <t>suppress_map_creation</t>
-        </is>
-      </c>
-      <c r="K1" s="11" t="inlineStr">
-        <is>
-          <t>add_maps_to_current</t>
-        </is>
-      </c>
-      <c r="L1" s="11" t="inlineStr">
-        <is>
-          <t>run_as_fcbc</t>
-        </is>
-      </c>
-      <c r="M1" s="8" t="inlineStr">
-        <is>
-          <t>ast_condition</t>
-        </is>
-      </c>
-      <c r="N1" s="10" t="inlineStr">
-        <is>
-          <t>file_number</t>
-        </is>
-      </c>
-      <c r="O1" s="12" t="n"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="13" t="inlineStr">
-        <is>
-          <t>South_Coast</t>
-        </is>
-      </c>
-      <c r="B2" s="14" t="inlineStr">
-        <is>
-          <t>\\spatialfiles.bcgov\srm\gss\projects\gr_2025_26_general_request_batch_20_statuses\source_data\Powell River Parcels - South Coast\632\632.shp</t>
-        </is>
-      </c>
-      <c r="C2" s="15" t="n"/>
-      <c r="D2" s="15" t="n"/>
-      <c r="E2" s="15" t="n"/>
-      <c r="F2" s="14" t="inlineStr">
-        <is>
-          <t>\\spatialfiles.bcgov\work\srm\nel\Local\Geomatics\Workarea\csostad\WildLifePermittingTest\AST_OUTPUTS\1</t>
-        </is>
-      </c>
-      <c r="G2" s="16" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H2" s="16" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="I2" s="16" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="J2" s="16" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="K2" s="16" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="L2" s="16" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M2" s="17" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
-      <c r="N2" s="18" t="n"/>
-      <c r="O2" s="12" t="n"/>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+      <c r="A2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="17"/>
+      <c r="O2" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="27.14785714285714" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col min="1" max="1" style="5" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Northeast</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="n"/>
-      <c r="C1" s="6" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Cariboo</t>
-        </is>
-      </c>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="6" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Kootenay_Boundary</t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="6" t="n"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Skeena</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>South_Coast</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="n"/>
-      <c r="C5" s="6" t="n"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Thompson_Okanagan</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="6" t="n"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>West_Coast</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="6" t="n"/>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>Omineca</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="n"/>
-      <c r="C8" s="6" t="n"/>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
